--- a/TestCases/Test Case.xlsx
+++ b/TestCases/Test Case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Pictures\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\eclipse-workspace\AutomationFramework\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="174">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -505,9 +505,6 @@
     <t>Check account holder name displyed under login</t>
   </si>
   <si>
-    <t>Valid account holder name should displyed under login</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check delivery address details </t>
   </si>
   <si>
@@ -551,6 +548,12 @@
   </si>
   <si>
     <t>The Checkouts and Payements Page should open</t>
+  </si>
+  <si>
+    <t>Home page should be displayed after login and user name should be displayed on home page.</t>
+  </si>
+  <si>
+    <t>Valid account holder name should displyed under login.</t>
   </si>
 </sst>
 </file>
@@ -1041,6 +1044,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1062,13 +1122,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,6 +1168,33 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,33 +1206,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1158,6 +1233,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1169,120 +1286,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1590,61 +1593,61 @@
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="95" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+    <row r="2" spans="1:12" s="52" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="94" t="s">
+      <c r="H2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="L2" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="6">
@@ -1661,12 +1664,12 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="6">
         <v>2</v>
       </c>
@@ -1681,12 +1684,12 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="6">
         <v>4</v>
       </c>
@@ -1701,12 +1704,12 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="6">
         <v>5</v>
       </c>
@@ -1721,12 +1724,12 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="6">
         <v>6</v>
       </c>
@@ -1741,22 +1744,22 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="6">
@@ -1773,12 +1776,12 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="6">
         <v>2</v>
       </c>
@@ -1793,12 +1796,12 @@
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="6">
         <v>4</v>
       </c>
@@ -1813,12 +1816,12 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="6">
         <v>5</v>
       </c>
@@ -1833,12 +1836,12 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="6">
         <v>6</v>
       </c>
@@ -1853,22 +1856,22 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="51"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="6">
         <v>1</v>
       </c>
@@ -1883,12 +1886,12 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="6">
         <v>2</v>
       </c>
@@ -1903,12 +1906,12 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="6">
         <v>3</v>
       </c>
@@ -1923,12 +1926,12 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="6">
         <v>4</v>
       </c>
@@ -1943,12 +1946,12 @@
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="51"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="6">
         <v>5</v>
       </c>
@@ -1963,22 +1966,22 @@
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="2">
         <v>1</v>
       </c>
@@ -1993,12 +1996,12 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="56"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="2">
         <v>2</v>
       </c>
@@ -2013,12 +2016,12 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="2">
         <v>3</v>
       </c>
@@ -2033,12 +2036,12 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="56"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="2">
         <v>4</v>
       </c>
@@ -2053,12 +2056,12 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="56"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="2">
         <v>5</v>
       </c>
@@ -2073,22 +2076,22 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" s="8" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="53"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="6">
         <v>1</v>
       </c>
@@ -2103,12 +2106,12 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="6">
         <v>2</v>
       </c>
@@ -2123,12 +2126,12 @@
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="54"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="6">
         <v>3</v>
       </c>
@@ -2143,12 +2146,12 @@
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="54"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="6">
         <v>4</v>
       </c>
@@ -2163,12 +2166,12 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="54"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="6">
         <v>5</v>
       </c>
@@ -2183,12 +2186,12 @@
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="54"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="6">
         <v>6</v>
       </c>
@@ -2203,12 +2206,12 @@
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="55"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="6">
         <v>7</v>
       </c>
@@ -2223,22 +2226,22 @@
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="102"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="2">
         <v>1</v>
       </c>
@@ -2253,12 +2256,12 @@
       <c r="L30" s="49"/>
     </row>
     <row r="31" spans="1:12" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="103"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="81"/>
       <c r="G31" s="2">
         <v>2</v>
       </c>
@@ -2273,12 +2276,12 @@
       <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="103"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="81"/>
       <c r="G32" s="2">
         <v>3</v>
       </c>
@@ -2293,12 +2296,12 @@
       <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="103"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="81"/>
       <c r="G33" s="2">
         <v>4</v>
       </c>
@@ -2313,12 +2316,12 @@
       <c r="L33" s="49"/>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="103"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="2">
         <v>5</v>
       </c>
@@ -2333,19 +2336,19 @@
       <c r="L34" s="49"/>
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="105">
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="54">
         <v>6</v>
       </c>
-      <c r="H35" s="106" t="s">
+      <c r="H35" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="107" t="s">
+      <c r="I35" s="56" t="s">
         <v>33</v>
       </c>
       <c r="J35" s="49"/>
@@ -2353,23 +2356,23 @@
       <c r="L35" s="49"/>
     </row>
     <row r="36" spans="1:12" s="25" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="98"/>
-      <c r="G36" s="99">
+      <c r="F36" s="77"/>
+      <c r="G36" s="53">
         <v>1</v>
       </c>
       <c r="H36" s="24" t="s">
@@ -2383,13 +2386,13 @@
       <c r="L36" s="24"/>
     </row>
     <row r="37" spans="1:12" s="25" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="99">
+      <c r="A37" s="83"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="53">
         <v>2</v>
       </c>
       <c r="H37" s="24" t="s">
@@ -2403,13 +2406,13 @@
       <c r="L37" s="24"/>
     </row>
     <row r="38" spans="1:12" s="25" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="99">
+      <c r="A38" s="83"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="53">
         <v>3</v>
       </c>
       <c r="H38" s="24" t="s">
@@ -2423,13 +2426,13 @@
       <c r="L38" s="24"/>
     </row>
     <row r="39" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="99">
+      <c r="A39" s="83"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="53">
         <v>4</v>
       </c>
       <c r="H39" s="24" t="s">
@@ -2443,13 +2446,13 @@
       <c r="L39" s="24"/>
     </row>
     <row r="40" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="99">
+      <c r="A40" s="83"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="53">
         <v>5</v>
       </c>
       <c r="H40" s="24" t="s">
@@ -2540,61 +2543,61 @@
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="95" customFormat="1" ht="37" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:12" s="52" customFormat="1" ht="37" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="75" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="49">
@@ -2611,12 +2614,12 @@
       <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="49">
         <v>2</v>
       </c>
@@ -2631,12 +2634,12 @@
       <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="49">
         <v>3</v>
       </c>
@@ -2651,12 +2654,12 @@
       <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="56"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="49">
         <v>4</v>
       </c>
@@ -2671,12 +2674,12 @@
       <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="56"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="49">
         <v>5</v>
       </c>
@@ -2691,12 +2694,12 @@
       <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="49">
         <v>6</v>
       </c>
@@ -2711,22 +2714,22 @@
       <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="61"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="15">
         <v>1</v>
       </c>
@@ -2741,12 +2744,12 @@
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="61"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="15">
         <v>2</v>
       </c>
@@ -2761,12 +2764,12 @@
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="61"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="15">
         <v>3</v>
       </c>
@@ -2781,12 +2784,12 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="15">
         <v>4</v>
       </c>
@@ -2801,12 +2804,12 @@
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="61"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="15">
         <v>5</v>
       </c>
@@ -2821,12 +2824,12 @@
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" s="16" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="61"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="15">
         <v>6</v>
       </c>
@@ -2841,22 +2844,22 @@
       <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="75"/>
       <c r="G14" s="49">
         <v>1</v>
       </c>
@@ -2871,12 +2874,12 @@
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="49">
         <v>2</v>
       </c>
@@ -2891,12 +2894,12 @@
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="49">
         <v>3</v>
       </c>
@@ -2911,12 +2914,12 @@
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="49">
         <v>4</v>
       </c>
@@ -2931,12 +2934,12 @@
       <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="49">
         <v>5</v>
       </c>
@@ -2951,12 +2954,12 @@
       <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="49">
         <v>6</v>
       </c>
@@ -2971,22 +2974,22 @@
       <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="15">
         <v>1</v>
       </c>
@@ -3001,12 +3004,12 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="15">
         <v>2</v>
       </c>
@@ -3021,12 +3024,12 @@
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="15">
         <v>3</v>
       </c>
@@ -3041,12 +3044,12 @@
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="15">
         <v>4</v>
       </c>
@@ -3061,12 +3064,12 @@
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="15">
         <v>5</v>
       </c>
@@ -3081,12 +3084,12 @@
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="15">
         <v>6</v>
       </c>
@@ -3101,22 +3104,22 @@
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="9">
         <v>1</v>
       </c>
@@ -3131,12 +3134,12 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="9">
         <v>2</v>
       </c>
@@ -3151,12 +3154,12 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="9">
         <v>3</v>
       </c>
@@ -3171,12 +3174,12 @@
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="9">
         <v>4</v>
       </c>
@@ -3191,12 +3194,12 @@
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="9">
         <v>5</v>
       </c>
@@ -3211,12 +3214,12 @@
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="9">
         <v>6</v>
       </c>
@@ -3231,22 +3234,22 @@
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="51"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="9">
         <v>1</v>
       </c>
@@ -3261,12 +3264,12 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
       <c r="G33" s="9">
         <v>2</v>
       </c>
@@ -3281,12 +3284,12 @@
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="9">
         <v>3</v>
       </c>
@@ -3301,12 +3304,12 @@
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
       <c r="G35" s="9">
         <v>4</v>
       </c>
@@ -3321,12 +3324,12 @@
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="9">
         <v>5</v>
       </c>
@@ -3341,12 +3344,12 @@
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
       <c r="G37" s="9">
         <v>6</v>
       </c>
@@ -3361,12 +3364,12 @@
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="8" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="9">
         <v>7</v>
       </c>
@@ -3381,22 +3384,22 @@
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="61"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="15">
         <v>1</v>
       </c>
@@ -3411,12 +3414,12 @@
       <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="15">
         <v>2</v>
       </c>
@@ -3431,12 +3434,12 @@
       <c r="L40" s="15"/>
     </row>
     <row r="41" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="61"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="15">
         <v>3</v>
       </c>
@@ -3451,12 +3454,12 @@
       <c r="L41" s="15"/>
     </row>
     <row r="42" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="61"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
       <c r="G42" s="15">
         <v>4</v>
       </c>
@@ -3471,12 +3474,12 @@
       <c r="L42" s="15"/>
     </row>
     <row r="43" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="61"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
       <c r="G43" s="15">
         <v>5</v>
       </c>
@@ -3491,12 +3494,12 @@
       <c r="L43" s="15"/>
     </row>
     <row r="44" spans="1:12" s="16" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="61"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="15">
         <v>6</v>
       </c>
@@ -3511,22 +3514,22 @@
       <c r="L44" s="15"/>
     </row>
     <row r="45" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="D45" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="56" t="s">
+      <c r="E45" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="75"/>
       <c r="G45" s="49">
         <v>1</v>
       </c>
@@ -3541,12 +3544,12 @@
       <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
       <c r="G46" s="49">
         <v>2</v>
       </c>
@@ -3561,12 +3564,12 @@
       <c r="L46" s="49"/>
     </row>
     <row r="47" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="49">
         <v>3</v>
       </c>
@@ -3581,12 +3584,12 @@
       <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
       <c r="G48" s="49">
         <v>4</v>
       </c>
@@ -3601,12 +3604,12 @@
       <c r="L48" s="49"/>
     </row>
     <row r="49" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
       <c r="G49" s="49">
         <v>5</v>
       </c>
@@ -3621,12 +3624,12 @@
       <c r="L49" s="49"/>
     </row>
     <row r="50" spans="1:12" s="4" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
       <c r="G50" s="49">
         <v>6</v>
       </c>
@@ -3641,22 +3644,22 @@
       <c r="L50" s="49"/>
     </row>
     <row r="51" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="53"/>
+      <c r="F51" s="72"/>
       <c r="G51" s="6">
         <v>1</v>
       </c>
@@ -3671,12 +3674,12 @@
       <c r="L51" s="14"/>
     </row>
     <row r="52" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="54"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="73"/>
       <c r="G52" s="6">
         <v>2</v>
       </c>
@@ -3691,12 +3694,12 @@
       <c r="L52" s="14"/>
     </row>
     <row r="53" spans="1:12" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="54"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="73"/>
       <c r="G53" s="6">
         <v>3</v>
       </c>
@@ -3711,12 +3714,12 @@
       <c r="L53" s="14"/>
     </row>
     <row r="54" spans="1:12" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="54"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="73"/>
       <c r="G54" s="6">
         <v>4</v>
       </c>
@@ -3731,12 +3734,12 @@
       <c r="L54" s="14"/>
     </row>
     <row r="55" spans="1:12" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="54"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="73"/>
       <c r="G55" s="10">
         <v>5</v>
       </c>
@@ -3751,12 +3754,12 @@
       <c r="L55" s="14"/>
     </row>
     <row r="56" spans="1:12" s="8" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="63"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="87"/>
       <c r="G56" s="10">
         <v>6</v>
       </c>
@@ -3771,12 +3774,12 @@
       <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:12" s="8" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="51"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="64"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="88"/>
       <c r="G57" s="11">
         <v>7</v>
       </c>
@@ -3880,61 +3883,61 @@
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="109" customFormat="1" ht="37" x14ac:dyDescent="0.35">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:12" s="58" customFormat="1" ht="37" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="57" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="70" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="14">
@@ -3951,12 +3954,12 @@
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="14">
         <v>2</v>
       </c>
@@ -3971,12 +3974,12 @@
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="14">
         <v>3</v>
       </c>
@@ -3991,12 +3994,12 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="14">
         <v>4</v>
       </c>
@@ -4011,12 +4014,12 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="14">
         <v>5</v>
       </c>
@@ -4031,12 +4034,12 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="14">
         <v>6</v>
       </c>
@@ -4051,12 +4054,12 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="14">
         <v>7</v>
       </c>
@@ -4071,12 +4074,12 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="14">
         <v>8</v>
       </c>
@@ -4091,22 +4094,22 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="49">
         <v>1</v>
       </c>
@@ -4121,12 +4124,12 @@
       <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="49">
         <v>2</v>
       </c>
@@ -4141,12 +4144,12 @@
       <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="49">
         <v>3</v>
       </c>
@@ -4161,12 +4164,12 @@
       <c r="L12" s="49"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="75"/>
       <c r="G13" s="49">
         <v>4</v>
       </c>
@@ -4181,12 +4184,12 @@
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="75"/>
       <c r="G14" s="49">
         <v>5</v>
       </c>
@@ -4201,19 +4204,19 @@
       <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="56"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="75"/>
       <c r="G15" s="49">
         <v>6</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="59" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="49"/>
@@ -4221,19 +4224,19 @@
       <c r="L15" s="49"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="49">
         <v>7</v>
       </c>
-      <c r="H16" s="106" t="s">
+      <c r="H16" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="107" t="s">
+      <c r="I16" s="56" t="s">
         <v>91</v>
       </c>
       <c r="J16" s="49"/>
@@ -4241,12 +4244,12 @@
       <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="56"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="49">
         <v>5</v>
       </c>
@@ -4261,22 +4264,22 @@
       <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="48">
         <v>1</v>
       </c>
@@ -4291,12 +4294,12 @@
       <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="61"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="48">
         <v>2</v>
       </c>
@@ -4311,12 +4314,12 @@
       <c r="L19" s="48"/>
     </row>
     <row r="20" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="61"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="48">
         <v>3</v>
       </c>
@@ -4331,12 +4334,12 @@
       <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="61"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="48">
         <v>4</v>
       </c>
@@ -4351,12 +4354,12 @@
       <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="61"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="48">
         <v>5</v>
       </c>
@@ -4371,12 +4374,12 @@
       <c r="L22" s="48"/>
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="61"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="48">
         <v>6</v>
       </c>
@@ -4391,12 +4394,12 @@
       <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="61"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="48">
         <v>7</v>
       </c>
@@ -4411,12 +4414,12 @@
       <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="61"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="48">
         <v>8</v>
       </c>
@@ -4431,22 +4434,22 @@
       <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="75"/>
       <c r="G26" s="49">
         <v>1</v>
       </c>
@@ -4461,12 +4464,12 @@
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="49">
         <v>2</v>
       </c>
@@ -4481,12 +4484,12 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="56"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="75"/>
       <c r="G28" s="49">
         <v>3</v>
       </c>
@@ -4501,12 +4504,12 @@
       <c r="L28" s="49"/>
     </row>
     <row r="29" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="75"/>
       <c r="G29" s="49">
         <v>4</v>
       </c>
@@ -4521,12 +4524,12 @@
       <c r="L29" s="49"/>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="56"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="75"/>
       <c r="G30" s="49">
         <v>5</v>
       </c>
@@ -4541,19 +4544,19 @@
       <c r="L30" s="49"/>
     </row>
     <row r="31" spans="1:12" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="56"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="75"/>
       <c r="G31" s="49">
         <v>6</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="110" t="s">
+      <c r="I31" s="59" t="s">
         <v>90</v>
       </c>
       <c r="J31" s="49"/>
@@ -4561,19 +4564,19 @@
       <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="56"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="75"/>
       <c r="G32" s="49">
         <v>7</v>
       </c>
-      <c r="H32" s="106" t="s">
+      <c r="H32" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="107" t="s">
+      <c r="I32" s="56" t="s">
         <v>98</v>
       </c>
       <c r="J32" s="49"/>
@@ -4581,22 +4584,22 @@
       <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="61"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="21">
         <v>1</v>
       </c>
@@ -4611,12 +4614,12 @@
       <c r="L33" s="21"/>
     </row>
     <row r="34" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="61"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="21">
         <v>2</v>
       </c>
@@ -4631,12 +4634,12 @@
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="61"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="61"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="21">
         <v>3</v>
       </c>
@@ -4651,12 +4654,12 @@
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="61"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="21">
         <v>4</v>
       </c>
@@ -4671,12 +4674,12 @@
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="61"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="85"/>
       <c r="G37" s="21">
         <v>5</v>
       </c>
@@ -4691,12 +4694,12 @@
       <c r="L37" s="21"/>
     </row>
     <row r="38" spans="1:12" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="61"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="21">
         <v>6</v>
       </c>
@@ -4711,12 +4714,12 @@
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="61"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="21">
         <v>7</v>
       </c>
@@ -4731,12 +4734,12 @@
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12" s="16" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="61"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="21">
         <v>8</v>
       </c>
@@ -4751,22 +4754,22 @@
       <c r="L40" s="21"/>
     </row>
     <row r="41" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="75"/>
       <c r="G41" s="49">
         <v>1</v>
       </c>
@@ -4781,12 +4784,12 @@
       <c r="L41" s="49"/>
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="56"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="75"/>
       <c r="G42" s="49">
         <v>2</v>
       </c>
@@ -4801,12 +4804,12 @@
       <c r="L42" s="49"/>
     </row>
     <row r="43" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="56"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="75"/>
       <c r="G43" s="49">
         <v>3</v>
       </c>
@@ -4821,12 +4824,12 @@
       <c r="L43" s="49"/>
     </row>
     <row r="44" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="56"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="75"/>
       <c r="G44" s="49">
         <v>4</v>
       </c>
@@ -4841,12 +4844,12 @@
       <c r="L44" s="49"/>
     </row>
     <row r="45" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="56"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="75"/>
       <c r="G45" s="49">
         <v>5</v>
       </c>
@@ -4861,19 +4864,19 @@
       <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="56"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="75"/>
       <c r="G46" s="49">
         <v>6</v>
       </c>
       <c r="H46" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="I46" s="110" t="s">
+      <c r="I46" s="59" t="s">
         <v>90</v>
       </c>
       <c r="J46" s="49"/>
@@ -4881,19 +4884,19 @@
       <c r="L46" s="49"/>
     </row>
     <row r="47" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="56"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="49">
         <v>7</v>
       </c>
-      <c r="H47" s="106" t="s">
+      <c r="H47" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="107" t="s">
+      <c r="I47" s="56" t="s">
         <v>91</v>
       </c>
       <c r="J47" s="49"/>
@@ -4901,12 +4904,12 @@
       <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="56"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="75"/>
       <c r="G48" s="49">
         <v>8</v>
       </c>
@@ -4921,22 +4924,22 @@
       <c r="L48" s="49"/>
     </row>
     <row r="49" spans="1:12" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="62" t="s">
+      <c r="E49" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="85"/>
       <c r="G49" s="48">
         <v>1</v>
       </c>
@@ -4951,12 +4954,12 @@
       <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="61"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="61"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="85"/>
       <c r="G50" s="48">
         <v>2</v>
       </c>
@@ -4971,12 +4974,12 @@
       <c r="L50" s="48"/>
     </row>
     <row r="51" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="61"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="48">
         <v>3</v>
       </c>
@@ -4991,12 +4994,12 @@
       <c r="L51" s="48"/>
     </row>
     <row r="52" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="61"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="61"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="85"/>
       <c r="G52" s="48">
         <v>4</v>
       </c>
@@ -5011,12 +5014,12 @@
       <c r="L52" s="48"/>
     </row>
     <row r="53" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="61"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="85"/>
       <c r="G53" s="48">
         <v>5</v>
       </c>
@@ -5031,12 +5034,12 @@
       <c r="L53" s="48"/>
     </row>
     <row r="54" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="61"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="61"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="85"/>
       <c r="G54" s="48">
         <v>6</v>
       </c>
@@ -5051,12 +5054,12 @@
       <c r="L54" s="48"/>
     </row>
     <row r="55" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="61"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="61"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="85"/>
       <c r="G55" s="48">
         <v>7</v>
       </c>
@@ -5071,12 +5074,12 @@
       <c r="L55" s="48"/>
     </row>
     <row r="56" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="61"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="61"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="85"/>
       <c r="G56" s="48">
         <v>8</v>
       </c>
@@ -5091,22 +5094,22 @@
       <c r="L56" s="48"/>
     </row>
     <row r="57" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="66" t="s">
+      <c r="E57" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="53"/>
+      <c r="F57" s="72"/>
       <c r="G57" s="22">
         <v>1</v>
       </c>
@@ -5121,12 +5124,12 @@
       <c r="L57" s="22"/>
     </row>
     <row r="58" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="54"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="73"/>
       <c r="G58" s="22">
         <v>2</v>
       </c>
@@ -5141,12 +5144,12 @@
       <c r="L58" s="22"/>
     </row>
     <row r="59" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="54"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="73"/>
       <c r="G59" s="22">
         <v>3</v>
       </c>
@@ -5161,12 +5164,12 @@
       <c r="L59" s="22"/>
     </row>
     <row r="60" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="54"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="22">
         <v>4</v>
       </c>
@@ -5181,12 +5184,12 @@
       <c r="L60" s="22"/>
     </row>
     <row r="61" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="54"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="73"/>
       <c r="G61" s="22">
         <v>5</v>
       </c>
@@ -5201,12 +5204,12 @@
       <c r="L61" s="22"/>
     </row>
     <row r="62" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="54"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="73"/>
       <c r="G62" s="22">
         <v>6</v>
       </c>
@@ -5221,12 +5224,12 @@
       <c r="L62" s="22"/>
     </row>
     <row r="63" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="54"/>
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="73"/>
       <c r="G63" s="22">
         <v>7</v>
       </c>
@@ -5241,12 +5244,12 @@
       <c r="L63" s="22"/>
     </row>
     <row r="64" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="65"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="89"/>
       <c r="G64" s="27">
         <v>8</v>
       </c>
@@ -5261,22 +5264,22 @@
       <c r="L64" s="27"/>
     </row>
     <row r="65" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="D65" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="53"/>
+      <c r="F65" s="72"/>
       <c r="G65" s="44">
         <v>1</v>
       </c>
@@ -5291,12 +5294,12 @@
       <c r="L65" s="44"/>
     </row>
     <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="54"/>
+      <c r="A66" s="73"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="73"/>
       <c r="G66" s="44">
         <v>2</v>
       </c>
@@ -5311,12 +5314,12 @@
       <c r="L66" s="44"/>
     </row>
     <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="54"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="73"/>
       <c r="G67" s="44">
         <v>3</v>
       </c>
@@ -5331,12 +5334,12 @@
       <c r="L67" s="44"/>
     </row>
     <row r="68" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="54"/>
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="73"/>
       <c r="G68" s="44">
         <v>4</v>
       </c>
@@ -5351,12 +5354,12 @@
       <c r="L68" s="44"/>
     </row>
     <row r="69" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="54"/>
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="73"/>
       <c r="G69" s="44">
         <v>5</v>
       </c>
@@ -5371,12 +5374,12 @@
       <c r="L69" s="44"/>
     </row>
     <row r="70" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="54"/>
+      <c r="A70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="73"/>
       <c r="G70" s="44">
         <v>6</v>
       </c>
@@ -5391,12 +5394,12 @@
       <c r="L70" s="44"/>
     </row>
     <row r="71" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="54"/>
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="73"/>
       <c r="G71" s="44">
         <v>7</v>
       </c>
@@ -5411,20 +5414,20 @@
       <c r="L71" s="44"/>
     </row>
     <row r="72" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="65"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="89"/>
       <c r="G72" s="27">
         <v>8</v>
       </c>
       <c r="H72" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I72" s="27" t="s">
         <v>171</v>
-      </c>
-      <c r="I72" s="27" t="s">
-        <v>172</v>
       </c>
       <c r="J72" s="27"/>
       <c r="K72" s="27"/>
@@ -5519,61 +5522,61 @@
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="95" customFormat="1" ht="37" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:12" s="52" customFormat="1" ht="37" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="51" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="31">
         <v>1</v>
       </c>
@@ -5588,12 +5591,12 @@
       <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="70"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="31">
         <v>2</v>
       </c>
@@ -5608,12 +5611,12 @@
       <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="70"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="31">
         <v>3</v>
       </c>
@@ -5628,12 +5631,12 @@
       <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="70"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="31">
         <v>4</v>
       </c>
@@ -5648,12 +5651,12 @@
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="70"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="31">
         <v>5</v>
       </c>
@@ -5668,12 +5671,12 @@
       <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="70"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="31">
         <v>6</v>
       </c>
@@ -5688,12 +5691,12 @@
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="70"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="103"/>
       <c r="G8" s="31">
         <v>7</v>
       </c>
@@ -5708,12 +5711,12 @@
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="70"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="103"/>
       <c r="G9" s="31">
         <v>8</v>
       </c>
@@ -5728,12 +5731,12 @@
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="71"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="32">
         <v>9</v>
       </c>
@@ -5748,22 +5751,22 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="31">
         <v>1</v>
       </c>
@@ -5778,12 +5781,12 @@
       <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="54"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="31">
         <v>2</v>
       </c>
@@ -5798,12 +5801,12 @@
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="54"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="31">
         <v>3</v>
       </c>
@@ -5818,12 +5821,12 @@
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="54"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="31">
         <v>4</v>
       </c>
@@ -5838,12 +5841,12 @@
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="31">
         <v>5</v>
       </c>
@@ -5858,12 +5861,12 @@
       <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="54"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="31">
         <v>6</v>
       </c>
@@ -5878,12 +5881,12 @@
       <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="31">
         <v>7</v>
       </c>
@@ -5898,12 +5901,12 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="54"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="31">
         <v>8</v>
       </c>
@@ -5918,12 +5921,12 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="26">
         <v>9</v>
       </c>
@@ -5938,22 +5941,22 @@
       <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="33">
         <v>1</v>
       </c>
@@ -5968,12 +5971,12 @@
       <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="73"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="33">
         <v>2</v>
       </c>
@@ -5988,12 +5991,12 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="73"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="33">
         <v>3</v>
       </c>
@@ -6008,12 +6011,12 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="73"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="33">
         <v>4</v>
       </c>
@@ -6028,12 +6031,12 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="73"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="33">
         <v>5</v>
       </c>
@@ -6048,12 +6051,12 @@
       <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="73"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="33">
         <v>6</v>
       </c>
@@ -6068,12 +6071,12 @@
       <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="73"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="33">
         <v>7</v>
       </c>
@@ -6088,12 +6091,12 @@
       <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="73"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="33">
         <v>8</v>
       </c>
@@ -6108,12 +6111,12 @@
       <c r="L27" s="34"/>
     </row>
     <row r="28" spans="1:12" s="37" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="73"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="99"/>
       <c r="G28" s="34">
         <v>9</v>
       </c>
@@ -6128,23 +6131,23 @@
       <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="113">
+      <c r="F29" s="117"/>
+      <c r="G29" s="60">
         <v>1</v>
       </c>
       <c r="H29" s="48" t="s">
@@ -6158,13 +6161,13 @@
       <c r="L29" s="48"/>
     </row>
     <row r="30" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="114"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="113">
+      <c r="A30" s="115"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="60">
         <v>2</v>
       </c>
       <c r="H30" s="48" t="s">
@@ -6178,13 +6181,13 @@
       <c r="L30" s="48"/>
     </row>
     <row r="31" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="114"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="113">
+      <c r="A31" s="115"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="60">
         <v>3</v>
       </c>
       <c r="H31" s="48" t="s">
@@ -6198,13 +6201,13 @@
       <c r="L31" s="48"/>
     </row>
     <row r="32" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="114"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="113">
+      <c r="A32" s="115"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="60">
         <v>4</v>
       </c>
       <c r="H32" s="48" t="s">
@@ -6218,13 +6221,13 @@
       <c r="L32" s="48"/>
     </row>
     <row r="33" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="114"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="113">
+      <c r="A33" s="115"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="60">
         <v>5</v>
       </c>
       <c r="H33" s="48" t="s">
@@ -6238,13 +6241,13 @@
       <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="114"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="113">
+      <c r="A34" s="115"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="60">
         <v>6</v>
       </c>
       <c r="H34" s="48" t="s">
@@ -6258,13 +6261,13 @@
       <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="114"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="113">
+      <c r="A35" s="115"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="60">
         <v>7</v>
       </c>
       <c r="H35" s="17" t="s">
@@ -6278,19 +6281,19 @@
       <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="114"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="113">
+      <c r="A36" s="115"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="60">
         <v>8</v>
       </c>
-      <c r="H36" s="116" t="s">
+      <c r="H36" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="116" t="s">
+      <c r="I36" s="61" t="s">
         <v>107</v>
       </c>
       <c r="J36" s="48"/>
@@ -6298,12 +6301,12 @@
       <c r="L36" s="48"/>
     </row>
     <row r="37" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="117"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="60"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="119"/>
       <c r="G37" s="48">
         <v>6</v>
       </c>
@@ -6318,22 +6321,22 @@
       <c r="L37" s="48"/>
     </row>
     <row r="38" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="72"/>
       <c r="G38" s="31">
         <v>1</v>
       </c>
@@ -6348,12 +6351,12 @@
       <c r="L38" s="26"/>
     </row>
     <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="54"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="73"/>
       <c r="G39" s="31">
         <v>2</v>
       </c>
@@ -6368,12 +6371,12 @@
       <c r="L39" s="26"/>
     </row>
     <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="54"/>
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="73"/>
       <c r="G40" s="31">
         <v>3</v>
       </c>
@@ -6388,12 +6391,12 @@
       <c r="L40" s="26"/>
     </row>
     <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="54"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="73"/>
       <c r="G41" s="31">
         <v>4</v>
       </c>
@@ -6408,12 +6411,12 @@
       <c r="L41" s="26"/>
     </row>
     <row r="42" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="54"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="73"/>
       <c r="G42" s="31">
         <v>5</v>
       </c>
@@ -6428,12 +6431,12 @@
       <c r="L42" s="26"/>
     </row>
     <row r="43" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="54"/>
+      <c r="A43" s="73"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="73"/>
       <c r="G43" s="31">
         <v>6</v>
       </c>
@@ -6448,12 +6451,12 @@
       <c r="L43" s="26"/>
     </row>
     <row r="44" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="54"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="73"/>
       <c r="G44" s="31">
         <v>7</v>
       </c>
@@ -6468,12 +6471,12 @@
       <c r="L44" s="26"/>
     </row>
     <row r="45" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="54"/>
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="73"/>
       <c r="G45" s="31">
         <v>8</v>
       </c>
@@ -6488,12 +6491,12 @@
       <c r="L45" s="26"/>
     </row>
     <row r="46" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="54"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="73"/>
       <c r="G46" s="26">
         <v>10</v>
       </c>
@@ -6508,22 +6511,22 @@
       <c r="L46" s="26"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="84" t="s">
+      <c r="D47" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="87" t="s">
+      <c r="E47" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="84"/>
+      <c r="F47" s="108"/>
       <c r="G47" s="23">
         <v>1</v>
       </c>
@@ -6538,12 +6541,12 @@
       <c r="L47" s="23"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="85"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="109"/>
       <c r="G48" s="23">
         <v>2</v>
       </c>
@@ -6558,12 +6561,12 @@
       <c r="L48" s="23"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="85"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="109"/>
       <c r="G49" s="23">
         <v>3</v>
       </c>
@@ -6578,12 +6581,12 @@
       <c r="L49" s="23"/>
     </row>
     <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="85"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="109"/>
       <c r="G50" s="23">
         <v>4</v>
       </c>
@@ -6598,12 +6601,12 @@
       <c r="L50" s="23"/>
     </row>
     <row r="51" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="85"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="109"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="109"/>
       <c r="G51" s="23">
         <v>5</v>
       </c>
@@ -6618,12 +6621,12 @@
       <c r="L51" s="23"/>
     </row>
     <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="85"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="109"/>
       <c r="G52" s="28">
         <v>6</v>
       </c>
@@ -6638,12 +6641,12 @@
       <c r="L52" s="28"/>
     </row>
     <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="85"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="109"/>
       <c r="G53" s="23">
         <v>7</v>
       </c>
@@ -6658,12 +6661,12 @@
       <c r="L53" s="23"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="85"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="109"/>
       <c r="G54" s="23">
         <v>8</v>
       </c>
@@ -6678,12 +6681,12 @@
       <c r="L54" s="23"/>
     </row>
     <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="86"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="110"/>
       <c r="G55" s="23">
         <v>9</v>
       </c>
@@ -6698,22 +6701,22 @@
       <c r="L55" s="23"/>
     </row>
     <row r="56" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="53"/>
+      <c r="F56" s="72"/>
       <c r="G56" s="43">
         <v>1</v>
       </c>
@@ -6728,12 +6731,12 @@
       <c r="L56" s="43"/>
     </row>
     <row r="57" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="54"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="73"/>
       <c r="G57" s="43">
         <v>2</v>
       </c>
@@ -6748,12 +6751,12 @@
       <c r="L57" s="43"/>
     </row>
     <row r="58" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="54"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="73"/>
       <c r="G58" s="43">
         <v>3</v>
       </c>
@@ -6768,12 +6771,12 @@
       <c r="L58" s="43"/>
     </row>
     <row r="59" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="54"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="73"/>
       <c r="G59" s="43">
         <v>4</v>
       </c>
@@ -6788,12 +6791,12 @@
       <c r="L59" s="43"/>
     </row>
     <row r="60" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="54"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="73"/>
       <c r="G60" s="43">
         <v>5</v>
       </c>
@@ -6808,12 +6811,12 @@
       <c r="L60" s="43"/>
     </row>
     <row r="61" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="54"/>
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="73"/>
       <c r="G61" s="42">
         <v>6</v>
       </c>
@@ -6828,12 +6831,12 @@
       <c r="L61" s="42"/>
     </row>
     <row r="62" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="54"/>
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="73"/>
       <c r="G62" s="43">
         <v>7</v>
       </c>
@@ -6848,12 +6851,12 @@
       <c r="L62" s="43"/>
     </row>
     <row r="63" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="65"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="89"/>
       <c r="G63" s="27">
         <v>8</v>
       </c>
@@ -6869,48 +6872,48 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="F56:F63"/>
     <mergeCell ref="A56:A63"/>
     <mergeCell ref="B56:B63"/>
     <mergeCell ref="C56:C63"/>
     <mergeCell ref="D56:D63"/>
     <mergeCell ref="E56:E63"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C37"/>
+    <mergeCell ref="D29:D37"/>
+    <mergeCell ref="E29:E37"/>
     <mergeCell ref="F47:F55"/>
     <mergeCell ref="A47:A55"/>
     <mergeCell ref="B47:B55"/>
     <mergeCell ref="C47:C55"/>
     <mergeCell ref="D47:D55"/>
     <mergeCell ref="E47:E55"/>
-    <mergeCell ref="F38:F46"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="D29:D37"/>
-    <mergeCell ref="E29:E37"/>
-    <mergeCell ref="F29:F37"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="B38:B46"/>
     <mergeCell ref="C38:C46"/>
     <mergeCell ref="D38:D46"/>
     <mergeCell ref="E38:E46"/>
     <mergeCell ref="F2:F10"/>
     <mergeCell ref="F20:F28"/>
+    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="F38:F46"/>
+    <mergeCell ref="F29:F37"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="E20:E28"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="D11:D19"/>
     <mergeCell ref="E11:E19"/>
-    <mergeCell ref="F11:F19"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C10"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="B20:B28"/>
     <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6925,7 +6928,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6945,61 +6948,61 @@
     <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="131" customFormat="1" ht="37" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:12" s="69" customFormat="1" ht="37" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="130" t="s">
+      <c r="L1" s="68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="72" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="30">
@@ -7016,12 +7019,12 @@
       <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="30">
         <v>2</v>
       </c>
@@ -7036,12 +7039,12 @@
       <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="30">
         <v>3</v>
       </c>
@@ -7056,12 +7059,12 @@
       <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="30">
         <v>4</v>
       </c>
@@ -7069,19 +7072,19 @@
         <v>114</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="30">
         <v>5</v>
       </c>
@@ -7096,12 +7099,12 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="29">
         <v>6</v>
       </c>
@@ -7116,12 +7119,12 @@
       <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="30">
         <v>7</v>
       </c>
@@ -7136,12 +7139,12 @@
       <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="27">
         <v>8</v>
       </c>
@@ -7156,12 +7159,12 @@
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="30">
         <v>9</v>
       </c>
@@ -7169,29 +7172,29 @@
         <v>156</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="66" t="s">
+      <c r="D11" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="30">
         <v>1</v>
       </c>
@@ -7206,12 +7209,12 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="54"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="30">
         <v>2</v>
       </c>
@@ -7226,12 +7229,12 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="54"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="30">
         <v>3</v>
       </c>
@@ -7246,12 +7249,12 @@
       <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:12" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="54"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="30">
         <v>4</v>
       </c>
@@ -7266,12 +7269,12 @@
       <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="30">
         <v>5</v>
       </c>
@@ -7286,12 +7289,12 @@
       <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="54"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="29">
         <v>6</v>
       </c>
@@ -7306,12 +7309,12 @@
       <c r="L16" s="30"/>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="30">
         <v>7</v>
       </c>
@@ -7326,12 +7329,12 @@
       <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="54"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="27">
         <v>8</v>
       </c>
@@ -7346,42 +7349,42 @@
       <c r="L18" s="30"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="30">
         <v>9</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
     <row r="20" spans="1:12" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="66" t="s">
+      <c r="D20" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="43">
         <v>1</v>
       </c>
@@ -7396,12 +7399,12 @@
       <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="43">
         <v>2</v>
       </c>
@@ -7416,12 +7419,12 @@
       <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="43">
         <v>3</v>
       </c>
@@ -7436,12 +7439,12 @@
       <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:12" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="43">
         <v>4</v>
       </c>
@@ -7456,12 +7459,12 @@
       <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="43">
         <v>5</v>
       </c>
@@ -7476,12 +7479,12 @@
       <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="54"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="43">
         <v>6</v>
       </c>
@@ -7496,12 +7499,12 @@
       <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="54"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="43">
         <v>7</v>
       </c>
@@ -7516,12 +7519,12 @@
       <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="54"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="43">
         <v>8</v>
       </c>
@@ -7536,62 +7539,62 @@
       <c r="L27" s="43"/>
     </row>
     <row r="28" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="54"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="43">
         <v>9</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J28" s="43"/>
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="54"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="43">
         <v>10</v>
       </c>
       <c r="H29" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="43" t="s">
         <v>163</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>164</v>
       </c>
       <c r="J29" s="43"/>
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:12" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="90" t="s">
+      <c r="C30" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="90" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="92" t="s">
+      <c r="D30" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="90"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="45">
         <v>1</v>
       </c>
@@ -7606,12 +7609,12 @@
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="91"/>
+      <c r="A31" s="129"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="129"/>
       <c r="G31" s="45">
         <v>2</v>
       </c>
@@ -7626,12 +7629,12 @@
       <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="91"/>
+      <c r="A32" s="129"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="129"/>
       <c r="G32" s="45">
         <v>3</v>
       </c>
@@ -7646,12 +7649,12 @@
       <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:14" s="46" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="91"/>
+      <c r="A33" s="129"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="45">
         <v>4</v>
       </c>
@@ -7666,12 +7669,12 @@
       <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:14" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="91"/>
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="129"/>
       <c r="G34" s="45">
         <v>5</v>
       </c>
@@ -7686,12 +7689,12 @@
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:14" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="91"/>
+      <c r="A35" s="129"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="45">
         <v>6</v>
       </c>
@@ -7706,12 +7709,12 @@
       <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:14" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="91"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="129"/>
       <c r="G36" s="45">
         <v>7</v>
       </c>
@@ -7726,12 +7729,12 @@
       <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="91"/>
+      <c r="A37" s="129"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="129"/>
       <c r="G37" s="45">
         <v>8</v>
       </c>
@@ -7746,282 +7749,282 @@
       <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:14" s="46" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="91"/>
+      <c r="A38" s="129"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="129"/>
       <c r="G38" s="45">
         <v>9</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J38" s="50"/>
       <c r="K38" s="50"/>
       <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:14" s="46" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="91"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="129"/>
       <c r="G39" s="50">
         <v>10</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I39" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J39" s="50"/>
       <c r="K39" s="50"/>
       <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="119" t="s">
+      <c r="B40" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="119" t="s">
+      <c r="C40" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="120" t="s">
+      <c r="E40" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="119"/>
-      <c r="G40" s="121">
+      <c r="F40" s="123"/>
+      <c r="G40" s="62">
         <v>1</v>
       </c>
-      <c r="H40" s="121" t="s">
+      <c r="H40" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="121" t="s">
+      <c r="I40" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="123"/>
-      <c r="N40" s="123"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
     </row>
     <row r="41" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="121">
+      <c r="A41" s="118"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="62">
         <v>2</v>
       </c>
-      <c r="H41" s="121" t="s">
+      <c r="H41" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="121" t="s">
+      <c r="I41" s="62" t="s">
         <v>111</v>
       </c>
       <c r="J41" s="48"/>
       <c r="K41" s="48"/>
       <c r="L41" s="48"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
     </row>
     <row r="42" spans="1:14" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="121">
+      <c r="A42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="62">
         <v>3</v>
       </c>
-      <c r="H42" s="121" t="s">
+      <c r="H42" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="121" t="s">
+      <c r="I42" s="62" t="s">
         <v>113</v>
       </c>
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
     </row>
     <row r="43" spans="1:14" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="121">
+      <c r="A43" s="118"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="62">
         <v>4</v>
       </c>
-      <c r="H43" s="121" t="s">
+      <c r="H43" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="I43" s="121" t="s">
+      <c r="I43" s="62" t="s">
         <v>117</v>
       </c>
       <c r="J43" s="48"/>
       <c r="K43" s="48"/>
       <c r="L43" s="48"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
     </row>
     <row r="44" spans="1:14" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="121">
+      <c r="A44" s="118"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="62">
         <v>5</v>
       </c>
-      <c r="H44" s="121" t="s">
+      <c r="H44" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="121" t="s">
+      <c r="I44" s="62" t="s">
         <v>127</v>
       </c>
       <c r="J44" s="48"/>
       <c r="K44" s="48"/>
       <c r="L44" s="48"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="124"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
     </row>
     <row r="45" spans="1:14" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="121">
+      <c r="A45" s="118"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="118"/>
+      <c r="G45" s="62">
         <v>6</v>
       </c>
-      <c r="H45" s="125" t="s">
+      <c r="H45" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="125" t="s">
+      <c r="I45" s="66" t="s">
         <v>116</v>
       </c>
       <c r="J45" s="48"/>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
     </row>
     <row r="46" spans="1:14" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="121">
+      <c r="A46" s="118"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="62">
         <v>7</v>
       </c>
-      <c r="H46" s="121" t="s">
+      <c r="H46" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="I46" s="121" t="s">
+      <c r="I46" s="62" t="s">
         <v>107</v>
       </c>
       <c r="J46" s="48"/>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
     </row>
     <row r="47" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="121">
+      <c r="A47" s="118"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="62">
         <v>8</v>
       </c>
-      <c r="H47" s="126" t="s">
+      <c r="H47" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="I47" s="121" t="s">
+      <c r="I47" s="62" t="s">
         <v>154</v>
       </c>
       <c r="J47" s="48"/>
       <c r="K47" s="48"/>
       <c r="L47" s="48"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
     </row>
     <row r="48" spans="1:14" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="121">
+      <c r="A48" s="118"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="62">
         <v>9</v>
       </c>
-      <c r="H48" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="I48" s="121" t="s">
-        <v>165</v>
+      <c r="H48" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>164</v>
       </c>
       <c r="J48" s="48"/>
       <c r="K48" s="48"/>
       <c r="L48" s="48"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
     </row>
     <row r="49" spans="1:14" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="125">
+      <c r="A49" s="118"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="66">
         <v>10</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="66" t="s">
         <v>166</v>
-      </c>
-      <c r="I49" s="125" t="s">
-        <v>167</v>
       </c>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
       <c r="L49" s="48"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
     </row>
     <row r="50" spans="1:14" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="60"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="119"/>
       <c r="G50" s="48">
         <v>11</v>
       </c>
@@ -8034,26 +8037,26 @@
       <c r="J50" s="48"/>
       <c r="K50" s="48"/>
       <c r="L50" s="48"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
     </row>
     <row r="51" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="102" t="s">
+      <c r="A51" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="127" t="s">
+      <c r="E51" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="F51" s="102"/>
+      <c r="F51" s="80"/>
       <c r="G51" s="45">
         <v>1</v>
       </c>
@@ -8068,12 +8071,12 @@
       <c r="L51" s="49"/>
     </row>
     <row r="52" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="103"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="103"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="81"/>
       <c r="G52" s="45">
         <v>2</v>
       </c>
@@ -8088,12 +8091,12 @@
       <c r="L52" s="49"/>
     </row>
     <row r="53" spans="1:14" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="103"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="103"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="81"/>
       <c r="G53" s="45">
         <v>3</v>
       </c>
@@ -8108,12 +8111,12 @@
       <c r="L53" s="49"/>
     </row>
     <row r="54" spans="1:14" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="103"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="103"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="81"/>
       <c r="G54" s="45">
         <v>4</v>
       </c>
@@ -8128,12 +8131,12 @@
       <c r="L54" s="49"/>
     </row>
     <row r="55" spans="1:14" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="103"/>
-      <c r="B55" s="103"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="103"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="81"/>
       <c r="G55" s="45">
         <v>5</v>
       </c>
@@ -8148,12 +8151,12 @@
       <c r="L55" s="49"/>
     </row>
     <row r="56" spans="1:14" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="103"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="103"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="81"/>
       <c r="G56" s="45">
         <v>6</v>
       </c>
@@ -8168,12 +8171,12 @@
       <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:14" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="103"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="103"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="126"/>
+      <c r="F57" s="81"/>
       <c r="G57" s="45">
         <v>7</v>
       </c>
@@ -8188,12 +8191,12 @@
       <c r="L57" s="49"/>
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="103"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="128"/>
-      <c r="F58" s="103"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="81"/>
       <c r="G58" s="45">
         <v>8</v>
       </c>
@@ -8208,52 +8211,52 @@
       <c r="L58" s="49"/>
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="103"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="103"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="81"/>
       <c r="G59" s="45">
         <v>9</v>
       </c>
       <c r="H59" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I59" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J59" s="49"/>
       <c r="K59" s="49"/>
       <c r="L59" s="49"/>
     </row>
     <row r="60" spans="1:14" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="103"/>
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="103"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="81"/>
       <c r="G60" s="50">
         <v>10</v>
       </c>
       <c r="H60" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" s="50" t="s">
         <v>166</v>
-      </c>
-      <c r="I60" s="50" t="s">
-        <v>167</v>
       </c>
       <c r="J60" s="49"/>
       <c r="K60" s="49"/>
       <c r="L60" s="49"/>
     </row>
     <row r="61" spans="1:14" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="103"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="103"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="81"/>
       <c r="G61" s="49">
         <v>11</v>
       </c>
@@ -8268,12 +8271,12 @@
       <c r="L61" s="49"/>
     </row>
     <row r="62" spans="1:14" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="104"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="104"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="82"/>
       <c r="G62" s="49">
         <v>12</v>
       </c>
@@ -8288,29 +8291,29 @@
       <c r="L62" s="49"/>
     </row>
     <row r="63" spans="1:14" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="61" t="s">
+      <c r="D63" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="62" t="s">
+      <c r="E63" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="61"/>
-      <c r="G63" s="121">
+      <c r="F63" s="85"/>
+      <c r="G63" s="62">
         <v>1</v>
       </c>
-      <c r="H63" s="121" t="s">
+      <c r="H63" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="121" t="s">
+      <c r="I63" s="62" t="s">
         <v>19</v>
       </c>
       <c r="J63" s="48"/>
@@ -8318,19 +8321,19 @@
       <c r="L63" s="48"/>
     </row>
     <row r="64" spans="1:14" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="121">
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="62">
         <v>2</v>
       </c>
-      <c r="H64" s="121" t="s">
+      <c r="H64" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="121" t="s">
+      <c r="I64" s="62" t="s">
         <v>111</v>
       </c>
       <c r="J64" s="48"/>
@@ -8338,19 +8341,19 @@
       <c r="L64" s="48"/>
     </row>
     <row r="65" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="121">
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="62">
         <v>3</v>
       </c>
-      <c r="H65" s="121" t="s">
+      <c r="H65" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="I65" s="121" t="s">
+      <c r="I65" s="62" t="s">
         <v>113</v>
       </c>
       <c r="J65" s="48"/>
@@ -8358,19 +8361,19 @@
       <c r="L65" s="48"/>
     </row>
     <row r="66" spans="1:12" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="121">
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="62">
         <v>4</v>
       </c>
-      <c r="H66" s="121" t="s">
+      <c r="H66" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="I66" s="121" t="s">
+      <c r="I66" s="62" t="s">
         <v>117</v>
       </c>
       <c r="J66" s="48"/>
@@ -8378,19 +8381,19 @@
       <c r="L66" s="48"/>
     </row>
     <row r="67" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="121">
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="62">
         <v>5</v>
       </c>
-      <c r="H67" s="121" t="s">
+      <c r="H67" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="I67" s="121" t="s">
+      <c r="I67" s="62" t="s">
         <v>127</v>
       </c>
       <c r="J67" s="48"/>
@@ -8398,19 +8401,19 @@
       <c r="L67" s="48"/>
     </row>
     <row r="68" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="121">
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="62">
         <v>6</v>
       </c>
-      <c r="H68" s="125" t="s">
+      <c r="H68" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="I68" s="125" t="s">
+      <c r="I68" s="66" t="s">
         <v>116</v>
       </c>
       <c r="J68" s="48"/>
@@ -8418,19 +8421,19 @@
       <c r="L68" s="48"/>
     </row>
     <row r="69" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="121">
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="62">
         <v>7</v>
       </c>
-      <c r="H69" s="121" t="s">
+      <c r="H69" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="I69" s="121" t="s">
+      <c r="I69" s="62" t="s">
         <v>107</v>
       </c>
       <c r="J69" s="48"/>
@@ -8438,19 +8441,19 @@
       <c r="L69" s="48"/>
     </row>
     <row r="70" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="121">
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="62">
         <v>8</v>
       </c>
-      <c r="H70" s="126" t="s">
+      <c r="H70" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="I70" s="121" t="s">
+      <c r="I70" s="62" t="s">
         <v>154</v>
       </c>
       <c r="J70" s="48"/>
@@ -8458,52 +8461,52 @@
       <c r="L70" s="48"/>
     </row>
     <row r="71" spans="1:12" s="16" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="61"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="121">
+      <c r="A71" s="85"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="62">
         <v>9</v>
       </c>
-      <c r="H71" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="I71" s="121" t="s">
-        <v>165</v>
+      <c r="H71" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="I71" s="62" t="s">
+        <v>164</v>
       </c>
       <c r="J71" s="48"/>
       <c r="K71" s="48"/>
       <c r="L71" s="48"/>
     </row>
     <row r="72" spans="1:12" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="125">
+      <c r="A72" s="85"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="66">
         <v>10</v>
       </c>
-      <c r="H72" s="125" t="s">
+      <c r="H72" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="I72" s="66" t="s">
         <v>166</v>
-      </c>
-      <c r="I72" s="125" t="s">
-        <v>167</v>
       </c>
       <c r="J72" s="48"/>
       <c r="K72" s="48"/>
       <c r="L72" s="48"/>
     </row>
     <row r="73" spans="1:12" s="16" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="61"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="85"/>
       <c r="G73" s="48">
         <v>11</v>
       </c>
